--- a/producehelper-master/src/main/resources/config/上线站点信息.xlsx
+++ b/producehelper-master/src/main/resources/config/上线站点信息.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:H70"/>
 </workbook>
 </file>
 
@@ -699,7 +700,7 @@
     <t>温州市轻工园区站</t>
   </si>
   <si>
-    <t>10.168.81.1</t>
+    <t>10.171.3.80:53306</t>
   </si>
   <si>
     <t>AEE003</t>
@@ -792,9 +793,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -806,7 +807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +821,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -827,8 +874,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,64 +928,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,39 +949,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,7 +971,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,37 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,19 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,103 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,6 +1068,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,8 +1183,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,7 +1193,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,6 +1228,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1229,30 +1248,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,10 +1270,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,16 +1282,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1305,119 +1300,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,17 +1431,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1804,9 +1793,9 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2140,7 +2129,7 @@
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2255,7 +2244,7 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -3023,10 +3012,10 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3044,10 +3033,10 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3065,10 +3054,10 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>208</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -3086,10 +3075,10 @@
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3107,10 +3096,10 @@
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3206,9 +3195,9 @@
       <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="9" t="s">
-        <v>82</v>
+      <c r="F61" s="6"/>
+      <c r="G61" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">

--- a/producehelper-master/src/main/resources/config/上线站点信息.xlsx
+++ b/producehelper-master/src/main/resources/config/上线站点信息.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="277">
   <si>
     <t>站点编号</t>
   </si>
@@ -773,6 +773,69 @@
   </si>
   <si>
     <t>10.168.115.129</t>
+  </si>
+  <si>
+    <t>AF3003</t>
+  </si>
+  <si>
+    <t>嘉兴平湖虹光站</t>
+  </si>
+  <si>
+    <t>10.168.85.1</t>
+  </si>
+  <si>
+    <t>AK7002</t>
+  </si>
+  <si>
+    <t>丽水庆元荷地站</t>
+  </si>
+  <si>
+    <t>10.168.118.129</t>
+  </si>
+  <si>
+    <t>AH1003</t>
+  </si>
+  <si>
+    <t>衢州柯城双塘站</t>
+  </si>
+  <si>
+    <t>10.168.91.129</t>
+  </si>
+  <si>
+    <t>AC6001</t>
+  </si>
+  <si>
+    <t>温州苍南灵溪镇城西站</t>
+  </si>
+  <si>
+    <t>10.168.93.129</t>
+  </si>
+  <si>
+    <t>AH6001</t>
+  </si>
+  <si>
+    <t>衢州开化芳村站</t>
+  </si>
+  <si>
+    <t>10.168.92.1</t>
+  </si>
+  <si>
+    <t>AK7001</t>
+  </si>
+  <si>
+    <t>丽水庆元竹口站</t>
+  </si>
+  <si>
+    <t>10.168.119.1</t>
+  </si>
+  <si>
+    <t>AHE003</t>
+  </si>
+  <si>
+    <t>衢州衢江霞飞路</t>
+  </si>
+  <si>
+    <t>10.168.108.1</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -793,9 +856,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -807,7 +870,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,23 +927,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +951,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -868,59 +991,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -928,23 +998,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,6 +1034,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -983,7 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,13 +1070,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1124,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,25 +1172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,61 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,31 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,6 +1229,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1176,39 +1254,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,8 +1276,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,11 +1319,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1282,133 +1345,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1790,12 +1853,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3367,26 +3430,173 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" s="4" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A70" s="4" t="s">
+    <row r="70" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="B71" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A77" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>82</v>
       </c>
     </row>

--- a/producehelper-master/src/main/resources/config/上线站点信息.xlsx
+++ b/producehelper-master/src/main/resources/config/上线站点信息.xlsx
@@ -855,9 +855,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -869,8 +869,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,76 +989,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,39 +1006,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,7 +1034,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,31 +1142,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,49 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,85 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,36 +1225,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1276,8 +1246,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,6 +1261,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1298,6 +1283,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,8 +1320,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,133 +1345,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1856,9 +1856,9 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3284,25 +3284,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A63" s="1" t="s">
+    <row r="63" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="1" t="s">
-        <v>14</v>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">

--- a/producehelper-master/src/main/resources/config/上线站点信息.xlsx
+++ b/producehelper-master/src/main/resources/config/上线站点信息.xlsx
@@ -241,6 +241,9 @@
     <t>hDOj6Kx9#</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>AK5001</t>
   </si>
   <si>
@@ -263,9 +266,6 @@
   </si>
   <si>
     <t>q8GL01#PLl</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>mysql主从同步问题</t>
@@ -869,6 +869,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -877,16 +937,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,15 +960,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,47 +991,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,33 +1006,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,7 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1058,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,19 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,25 +1154,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,79 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,6 +1225,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1254,65 +1299,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,6 +1316,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1333,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,16 +1345,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,119 +1363,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1488,6 +1488,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,6 +1505,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1856,9 +1865,9 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1939,7 +1948,7 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1962,7 +1971,7 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1985,7 +1994,7 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2008,7 +2017,7 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2031,7 +2040,7 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2054,7 +2063,7 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2077,7 +2086,7 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2100,7 +2109,7 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2123,7 +2132,7 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2146,7 +2155,7 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2169,7 +2178,7 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2192,7 +2201,7 @@
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2215,7 +2224,7 @@
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2238,45 +2247,45 @@
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>123456</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
+      <c r="G17" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -2284,8 +2293,8 @@
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>77</v>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -2293,13 +2302,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -2307,11 +2316,11 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="8" t="s">
         <v>82</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>83</v>
@@ -2333,7 +2342,7 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2356,7 +2365,7 @@
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2379,7 +2388,7 @@
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2402,7 +2411,7 @@
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2425,7 +2434,7 @@
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2448,7 +2457,7 @@
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2471,7 +2480,7 @@
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2494,7 +2503,7 @@
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="7">
         <v>123456</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2517,7 +2526,7 @@
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2540,7 +2549,7 @@
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2563,7 +2572,7 @@
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="7">
         <v>123456</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2586,7 +2595,7 @@
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>129</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2609,7 +2618,7 @@
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2632,7 +2641,7 @@
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2655,7 +2664,7 @@
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2678,7 +2687,7 @@
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2701,7 +2710,7 @@
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="7" t="s">
         <v>149</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2724,7 +2733,7 @@
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="7" t="s">
         <v>153</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2747,7 +2756,7 @@
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2770,7 +2779,7 @@
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2793,7 +2802,7 @@
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2823,7 @@
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="7">
         <v>123456</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2837,7 +2846,7 @@
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="7">
         <v>123456</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2860,7 +2869,7 @@
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="7">
         <v>123456</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2883,7 +2892,7 @@
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="7">
         <v>123456</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2906,7 +2915,7 @@
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="7">
         <v>123456</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2929,7 +2938,7 @@
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="7">
         <v>123456</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2952,7 +2961,7 @@
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="7">
         <v>123456</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2975,7 +2984,7 @@
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="7">
         <v>123456</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2998,7 +3007,7 @@
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="7">
         <v>123456</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3021,7 +3030,7 @@
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="7">
         <v>123456</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3044,7 +3053,7 @@
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="7">
         <v>123456</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3067,7 +3076,7 @@
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="7">
         <v>123456</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3075,13 +3084,13 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3090,16 +3099,16 @@
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3111,19 +3120,19 @@
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>209</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3132,19 +3141,19 @@
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3153,19 +3162,19 @@
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3174,7 +3183,7 @@
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
@@ -3195,7 +3204,7 @@
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="1" t="s">
         <v>14</v>
       </c>
@@ -3216,7 +3225,7 @@
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
@@ -3237,29 +3246,29 @@
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="4" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A61" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="3" t="s">
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3279,30 +3288,30 @@
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A63" s="3" t="s">
+    <row r="63" s="4" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A63" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="3" t="s">
-        <v>82</v>
+      <c r="D63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
@@ -3321,7 +3330,7 @@
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="5"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="1" t="s">
         <v>14</v>
       </c>
@@ -3342,7 +3351,7 @@
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3372,7 @@
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="5"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="1" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3393,7 @@
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="1" t="s">
         <v>14</v>
       </c>
@@ -3405,7 +3414,7 @@
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="5"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
@@ -3472,25 +3481,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A72" s="1" t="s">
+    <row r="72" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A72" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3577,27 +3586,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" s="4" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A77" s="4" t="s">
+    <row r="77" s="6" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A77" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="4" t="s">
+      <c r="D77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>82</v>
+      <c r="G77" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
